--- a/biology/Zoologie/Eocryphoecara_abicera/Eocryphoecara_abicera.xlsx
+++ b/biology/Zoologie/Eocryphoecara_abicera/Eocryphoecara_abicera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eocryphoecara
 Eocryphoecara abicera, unique représentant du genre Eocryphoecara, est une espèce fossile d'araignées aranéomorphes de la famille des Dictynidae.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte dans de l'ambre de la mer Baltique. Elle date du Paléogène[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte dans de l'ambre de la mer Baltique. Elle date du Paléogène.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Wunderlich, 2004 : Fossil spiders of the family Dictynidae s. l., including Cryphoecinae and Hahniinae in Baltic and Dominican amber and copal from Madagascar, and on selected extant Holarctic taxa, with new descriptions and diagnoses. Beiträge zur Araneologie, vol. 3, p. 1380–1482.</t>
         </is>
